--- a/data/RekapMuat.xlsx
+++ b/data/RekapMuat.xlsx
@@ -6,146 +6,240 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PELABUHAN JAMPEA" r:id="rId3" sheetId="1"/>
-    <sheet name="POSKER UJUNG" r:id="rId4" sheetId="2"/>
-    <sheet name="WILKER BONERATE" r:id="rId5" sheetId="3"/>
-    <sheet name="WILKER JINATO" r:id="rId6" sheetId="4"/>
-    <sheet name="WILKER KALAOTOA" r:id="rId7" sheetId="5"/>
-    <sheet name="WILKER KAYUADI" r:id="rId8" sheetId="6"/>
+    <sheet name="Jampea" r:id="rId3" sheetId="1"/>
+    <sheet name="Pamatata" r:id="rId4" sheetId="2"/>
+    <sheet name="Ujung" r:id="rId5" sheetId="3"/>
+    <sheet name="Bonerate" r:id="rId6" sheetId="4"/>
+    <sheet name="Jinato" r:id="rId7" sheetId="5"/>
+    <sheet name="Kalaotoa" r:id="rId8" sheetId="6"/>
+    <sheet name="Kayuadi" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="74">
   <si>
     <t>bulan</t>
   </si>
   <si>
-    <t>pelabuhan</t>
+    <t>Barang Campuran</t>
   </si>
   <si>
-    <t>jenis</t>
+    <t>Mobil</t>
   </si>
   <si>
-    <t>B.CAMP</t>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Penumpang</t>
   </si>
   <si>
     <t>BBM</t>
   </si>
   <si>
-    <t>BERAS</t>
+    <t>Beras</t>
   </si>
   <si>
-    <t>DEDAK</t>
+    <t>Dedak</t>
   </si>
   <si>
-    <t>DRUM KOSONG</t>
-  </si>
-  <si>
-    <t>GABUS IKAN</t>
-  </si>
-  <si>
-    <t>GARAM</t>
+    <t>Drum Kosong</t>
   </si>
   <si>
     <t>GC</t>
   </si>
   <si>
-    <t>IKAN KERING</t>
+    <t>Gabus Ikan</t>
   </si>
   <si>
-    <t>KELAPA BIJI</t>
+    <t>Garam</t>
   </si>
   <si>
-    <t>KERBAU</t>
+    <t>Ikan Kering</t>
   </si>
   <si>
-    <t>KOPRA</t>
+    <t>Kelapa Biji</t>
+  </si>
+  <si>
+    <t>Kerbau</t>
+  </si>
+  <si>
+    <t>Kopra</t>
   </si>
   <si>
     <t>LPG</t>
   </si>
   <si>
-    <t>LPG KOSONG</t>
+    <t>LPG Kosong</t>
   </si>
   <si>
-    <t>PUPUK</t>
+    <t>Pupuk</t>
   </si>
   <si>
-    <t>SAPI</t>
+    <t>Sapi</t>
   </si>
   <si>
-    <t>SEMEN</t>
+    <t>Semen</t>
   </si>
   <si>
-    <t>SOLAR</t>
+    <t>Solar</t>
   </si>
   <si>
-    <t>mobil</t>
+    <t>Ikan</t>
   </si>
   <si>
-    <t>motor</t>
+    <t>Kayu Kelapa</t>
   </si>
   <si>
-    <t>penumpang</t>
+    <t>Elpiji</t>
   </si>
   <si>
-    <t>IKAN</t>
+    <t>Kambing</t>
   </si>
   <si>
-    <t>KAYU KELAPA</t>
+    <t>Kuda</t>
   </si>
   <si>
-    <t>B. CAMP</t>
+    <t>Kacang Ijo</t>
   </si>
   <si>
-    <t>ELPIJI</t>
+    <t>Besi Tua</t>
   </si>
   <si>
-    <t>ELPIJI KOSONG</t>
+    <t>Plastik Bekas</t>
   </si>
   <si>
-    <t>KAMBING</t>
+    <t>Jambu Mente</t>
   </si>
   <si>
-    <t>KUDA</t>
+    <t>Kawat Duri</t>
   </si>
   <si>
-    <t>KACANG IJO</t>
+    <t>Kerikil</t>
   </si>
   <si>
-    <t>BESI TUA</t>
+    <t>Sembako</t>
   </si>
   <si>
-    <t>LPG KSG</t>
+    <t>Kayu Kanafa</t>
   </si>
   <si>
-    <t>PLASTIK BEKAS</t>
+    <t>Ikan Es</t>
+  </si>
+  <si>
+    <t>Pasir</t>
+  </si>
+  <si>
+    <t>Air Dos</t>
+  </si>
+  <si>
+    <t>Arang</t>
+  </si>
+  <si>
+    <t>Besi Beton</t>
+  </si>
+  <si>
+    <t>Chipping</t>
+  </si>
+  <si>
+    <t>Excavator</t>
+  </si>
+  <si>
+    <t>Galvanize</t>
+  </si>
+  <si>
+    <t>Mobilredy Mix</t>
+  </si>
+  <si>
+    <t>Paving Blok</t>
+  </si>
+  <si>
+    <t>Profile Tank</t>
+  </si>
+  <si>
+    <t>R. Laut</t>
+  </si>
+  <si>
+    <t>Besi</t>
+  </si>
+  <si>
+    <t>Besi Bekas</t>
+  </si>
+  <si>
+    <t>Ikan Asin</t>
+  </si>
+  <si>
+    <t>B. Bangunan</t>
+  </si>
+  <si>
+    <t>Peping</t>
+  </si>
+  <si>
+    <t>Rumput.l</t>
+  </si>
+  <si>
+    <t>Kacang Tanah</t>
+  </si>
+  <si>
+    <t>Cumi</t>
+  </si>
+  <si>
+    <t>Cumi Basah</t>
+  </si>
+  <si>
+    <t>Rusa</t>
+  </si>
+  <si>
+    <t>Bahan Bangunan</t>
+  </si>
+  <si>
+    <t>Bata</t>
+  </si>
+  <si>
+    <t>Tiang Besi Panel</t>
+  </si>
+  <si>
+    <t>Tiang Pancang</t>
+  </si>
+  <si>
+    <t>Kacang Gude</t>
+  </si>
+  <si>
+    <t>Panel Surya</t>
   </si>
   <si>
     <t>Januari</t>
   </si>
   <si>
-    <t>PELABUHAN JAMPEA</t>
+    <t>Februari</t>
   </si>
   <si>
-    <t>muat</t>
+    <t>Maret</t>
   </si>
   <si>
-    <t>POSKER UJUNG</t>
+    <t>April</t>
   </si>
   <si>
-    <t>WILKER BONERATE</t>
+    <t>Oktober</t>
   </si>
   <si>
-    <t>WILKER JINATO</t>
+    <t>Desember</t>
   </si>
   <si>
-    <t>WILKER KALAOTOA</t>
+    <t>Mei</t>
   </si>
   <si>
-    <t>WILKER KAYUADI</t>
+    <t>Juni</t>
+  </si>
+  <si>
+    <t>Agustus</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>November</t>
   </si>
 </sst>
 </file>
@@ -302,111 +396,1234 @@
       <c r="AI1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>35.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>237.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1200.0</v>
       </c>
       <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>576.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
         <v>33.0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="D4" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1088.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="H5" t="n">
         <v>10.0</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I5" t="n">
         <v>2.0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
         <v>3.0</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N5" t="n">
         <v>7.0</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O5" t="n">
         <v>9.0</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P5" t="n">
         <v>21.0</v>
       </c>
-      <c r="P2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="Q5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n">
         <v>49.0</v>
       </c>
-      <c r="R2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="S5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T5" t="n">
         <v>19.0</v>
       </c>
-      <c r="T2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>266.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1740.0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="U5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1322.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1563.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK7" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -439,202 +1656,175 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1896.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4691.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>4564.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.0</v>
+        <v>27356.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6186.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1334.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3726.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3548.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>21574.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1369.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3722.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3697.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22035.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="n">
+        <v>670.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2105.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2099.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13255.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1741.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1346.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9766.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1440.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1514.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8064.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="n">
+        <v>749.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1532.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1540.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8254.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="n">
+        <v>813.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1742.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1329.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8292.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="n">
+        <v>641.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1647.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1574.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9023.0</v>
       </c>
     </row>
   </sheetData>
@@ -756,16 +1946,100 @@
       <c r="AI1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -777,10 +2051,10 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -822,45 +2096,1084 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H5" t="n">
         <v>10.0</v>
       </c>
-      <c r="W2" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1219.0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" t="n">
         <v>8.0</v>
       </c>
-      <c r="AD2" t="n">
-        <v>641.0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="X5" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK7" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -983,22 +3296,106 @@
       <c r="AI1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>552.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1037,7 +3434,7 @@
         <v>0.0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="S2" t="n">
         <v>0.0</v>
@@ -1052,16 +3449,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="X2" t="n">
-        <v>136.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y2" t="n">
         <v>0.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0</v>
+        <v>727.0</v>
       </c>
       <c r="AA2" t="n">
         <v>0.0</v>
@@ -1088,6 +3485,1045 @@
         <v>0.0</v>
       </c>
       <c r="AI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>665.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1219.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>641.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>812.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>587.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>960.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK7" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1210,22 +4646,106 @@
       <c r="AI1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1255,13 +4775,13 @@
         <v>0.0</v>
       </c>
       <c r="O2" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="P2" t="n">
         <v>0.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R2" t="n">
         <v>0.0</v>
@@ -1276,13 +4796,13 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="X2" t="n">
-        <v>1218.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y2" t="n">
         <v>0.0</v>
@@ -1306,7 +4826,7 @@
         <v>0.0</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="AG2" t="n">
         <v>0.0</v>
@@ -1315,6 +4835,854 @@
         <v>0.0</v>
       </c>
       <c r="AI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK6" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1437,22 +5805,1456 @@
       <c r="AI1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>532.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1218.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>812.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>569.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>213.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1482,17 +7284,17 @@
         <v>0.0</v>
       </c>
       <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
         <v>13.0</v>
       </c>
-      <c r="P2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S2" t="n">
         <v>0.0</v>
       </c>
@@ -1506,43 +7308,1082 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
         <v>29.0</v>
       </c>
-      <c r="X2" t="n">
+      <c r="E5" t="n">
         <v>212.0</v>
       </c>
-      <c r="Y2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG2" t="n">
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC5" t="n">
         <v>1.0</v>
       </c>
-      <c r="AH2" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AD5" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>511.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
